--- a/Data/RedMattis/Big and Small - Lamias and other Snake-People - 2908225858/LSS.xlsx
+++ b/Data/RedMattis/Big and Small - Lamias and other Snake-People - 2908225858/LSS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zilrt\Desktop\Big and Small - Lamias and other Snake-People - 2908225858\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\Big and Small - Lamias and other Snake-People - 2908225858\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD72B05-A1AB-460A-94B7-E7F448BEF751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4966C5-4EF8-4BF9-8D50-4BD6C3AAED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1794,9 +1794,6 @@
     <t>AbilityDef+BS_SnekEngulf.label</t>
   </si>
   <si>
-    <t>##packageId##sarg.alphagenes</t>
-  </si>
-  <si>
     <t>AbilityDef+BS_SnekEngulf.description</t>
   </si>
   <si>
@@ -3898,12 +3895,15 @@
     <t>LoS_AdderFrame.customEffectDescriptions.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Alpha Genes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3927,6 +3927,14 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3959,11 +3967,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4268,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="D226" sqref="D226"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5011,7 +5020,7 @@
         <v>162</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>VLOOKUP(A38,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -5032,7 +5041,7 @@
         <v>166</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>VLOOKUP(A39,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6784,19 +6793,19 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="I120" s="1" t="str">
         <f>VLOOKUP(A155,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6805,19 +6814,19 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="I121" s="1" t="str">
         <f>VLOOKUP(A156,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6826,19 +6835,19 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="I122" s="1" t="str">
         <f>VLOOKUP(A157,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6847,7 +6856,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>148</v>
@@ -6856,10 +6865,10 @@
         <v>17</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="I123" s="1" t="str">
         <f>VLOOKUP(A158,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6868,7 +6877,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>148</v>
@@ -6877,10 +6886,10 @@
         <v>19</v>
       </c>
       <c r="E124" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="I124" s="1" t="str">
         <f>VLOOKUP(A159,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6889,19 +6898,19 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="F125" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I125" s="1" t="str">
         <f>VLOOKUP(A160,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6910,19 +6919,19 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="I126" s="1" t="str">
         <f>VLOOKUP(A161,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6931,19 +6940,19 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I127" s="1" t="str">
         <f>VLOOKUP(A162,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6952,19 +6961,19 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="I128" s="1" t="str">
         <f>VLOOKUP(A162,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -6973,13 +6982,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>130</v>
@@ -6994,13 +7003,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>134</v>
@@ -7015,19 +7024,19 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="I131" s="1" t="str">
         <f>VLOOKUP(A166,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7036,19 +7045,19 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E132" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="I132" s="1" t="str">
         <f>VLOOKUP(A167,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7057,19 +7066,19 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="I133" s="1" t="str">
         <f>VLOOKUP(A168,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7078,19 +7087,19 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="I134" s="1" t="str">
         <f>VLOOKUP(A169,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7099,19 +7108,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="I135" s="1" t="str">
         <f>VLOOKUP(A170,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7120,19 +7129,19 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>618</v>
-      </c>
       <c r="E136" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="I136" s="1" t="str">
         <f>VLOOKUP(A171,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7141,19 +7150,19 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="I137" s="1" t="e">
         <f>VLOOKUP(A172,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7162,19 +7171,19 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="I138" s="1" t="str">
         <f>VLOOKUP(A173,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7183,19 +7192,19 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="F139" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="I139" s="1" t="str">
         <f>VLOOKUP(A174,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7204,19 +7213,19 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="I140" s="1" t="str">
         <f>VLOOKUP(A175,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7225,19 +7234,19 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="I141" s="1" t="str">
         <f>VLOOKUP(A176,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7246,19 +7255,19 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="I142" s="1" t="str">
         <f>VLOOKUP(A177,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7267,19 +7276,19 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="I143" s="1" t="str">
         <f>VLOOKUP(A178,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7288,19 +7297,19 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="I144" s="1" t="str">
         <f>VLOOKUP(A178,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7309,19 +7318,19 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="E145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="I145" s="1" t="str">
         <f>VLOOKUP(A179,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7330,19 +7339,19 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="F146" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="I146" s="1" t="str">
         <f>VLOOKUP(A179,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7351,19 +7360,19 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="I147" s="1" t="str">
         <f>VLOOKUP(A180,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7372,19 +7381,19 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="I148" s="1" t="str">
         <f>VLOOKUP(A181,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7393,19 +7402,19 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="F149" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="I149" s="1" t="e">
         <f>VLOOKUP(A182,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7414,19 +7423,19 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="F150" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="I150" s="1" t="str">
         <f>VLOOKUP(A183,Sheet2!$A$1:$F$5832,6,FALSE)</f>
@@ -7435,563 +7444,563 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="F151" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E159" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>711</v>
-      </c>
       <c r="F160" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>723</v>
-      </c>
       <c r="E162" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="F163" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="F173" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E181" s="1" t="s">
-        <v>807</v>
-      </c>
       <c r="F181" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -8028,7 +8037,7 @@
         <v>373</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -8045,7 +8054,7 @@
         <v>384</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8062,76 +8071,82 @@
         <v>130</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E194" s="1" t="s">
+      <c r="D194" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E195" s="1" t="s">
+      <c r="D195" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>1198</v>
-      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1232</v>
-      </c>
+        <v>1231</v>
+      </c>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
       <c r="F197" s="1" t="s">
         <v>359</v>
       </c>
@@ -8141,8 +8156,10 @@
         <v>148</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1231</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
       <c r="F198" s="1" t="s">
         <v>356</v>
       </c>
@@ -8152,8 +8169,10 @@
         <v>148</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1230</v>
-      </c>
+        <v>1229</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
       <c r="F199" s="1" t="s">
         <v>352</v>
       </c>
@@ -8163,7 +8182,7 @@
         <v>148</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>348</v>
@@ -8174,7 +8193,7 @@
         <v>148</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>345</v>
@@ -8185,7 +8204,7 @@
         <v>148</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>341</v>
@@ -8196,7 +8215,7 @@
         <v>148</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>338</v>
@@ -8207,7 +8226,7 @@
         <v>148</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>335</v>
@@ -8221,7 +8240,7 @@
         <v>424</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -8229,7 +8248,7 @@
         <v>148</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>359</v>
@@ -8240,7 +8259,7 @@
         <v>148</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>356</v>
@@ -8251,7 +8270,7 @@
         <v>148</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>352</v>
@@ -8262,7 +8281,7 @@
         <v>148</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>348</v>
@@ -8273,7 +8292,7 @@
         <v>148</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>345</v>
@@ -8284,7 +8303,7 @@
         <v>148</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>341</v>
@@ -8295,7 +8314,7 @@
         <v>148</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>338</v>
@@ -8306,7 +8325,7 @@
         <v>148</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>335</v>
@@ -8317,10 +8336,10 @@
         <v>148</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
@@ -8328,7 +8347,7 @@
         <v>148</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>359</v>
@@ -8339,7 +8358,7 @@
         <v>148</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>356</v>
@@ -8350,7 +8369,7 @@
         <v>148</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>352</v>
@@ -8361,7 +8380,7 @@
         <v>148</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>348</v>
@@ -8372,7 +8391,7 @@
         <v>148</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>345</v>
@@ -8383,7 +8402,7 @@
         <v>148</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>341</v>
@@ -8394,7 +8413,7 @@
         <v>148</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>338</v>
@@ -8405,7 +8424,7 @@
         <v>148</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>335</v>
@@ -8419,7 +8438,7 @@
         <v>369</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
@@ -8427,7 +8446,7 @@
         <v>148</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>359</v>
@@ -8438,7 +8457,7 @@
         <v>148</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>356</v>
@@ -8449,7 +8468,7 @@
         <v>148</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>352</v>
@@ -8460,7 +8479,7 @@
         <v>148</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>348</v>
@@ -8471,7 +8490,7 @@
         <v>148</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>345</v>
@@ -8482,7 +8501,7 @@
         <v>148</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>341</v>
@@ -8493,7 +8512,7 @@
         <v>148</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>338</v>
@@ -8504,7 +8523,7 @@
         <v>148</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>335</v>
@@ -8518,24 +8537,24 @@
         <v>334</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -8913,7 +8932,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
@@ -8924,7 +8943,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J16" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A16,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -8933,18 +8952,18 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J17" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A17,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -8953,18 +8972,18 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J18" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A18,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -8973,18 +8992,18 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J19" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A19,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -8993,18 +9012,18 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J20" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A20,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9013,18 +9032,18 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J21" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A21,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9033,18 +9052,18 @@
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J22" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A22,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9053,18 +9072,18 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J23" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A23,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9073,18 +9092,18 @@
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J24" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A24,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9093,18 +9112,18 @@
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J25" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A25,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9113,18 +9132,18 @@
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J26" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A26,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9133,18 +9152,18 @@
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J27" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A27,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9153,18 +9172,18 @@
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J28" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A28,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9173,18 +9192,18 @@
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J29" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A29,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9193,18 +9212,18 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>849</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J30" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A30,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9213,18 +9232,18 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J31" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A31,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9233,18 +9252,18 @@
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>855</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J32" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A32,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9253,18 +9272,18 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J33" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A33,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9273,18 +9292,18 @@
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J34" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A34,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9293,18 +9312,18 @@
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J35" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A35,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9313,18 +9332,18 @@
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J36" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A36,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9333,18 +9352,18 @@
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J37" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A37,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9353,18 +9372,18 @@
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>873</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J38" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A38,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9373,18 +9392,18 @@
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J39" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A39,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9393,18 +9412,18 @@
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J40" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A40,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9413,18 +9432,18 @@
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J41" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A41,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9433,18 +9452,18 @@
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J42" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A42,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9453,18 +9472,18 @@
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J43" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A43,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9473,18 +9492,18 @@
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J44" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A44,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9493,18 +9512,18 @@
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J45" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A45,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9513,18 +9532,18 @@
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>897</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J46" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A46,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9533,18 +9552,18 @@
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J47" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A47,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9553,18 +9572,18 @@
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>903</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J48" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A48,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9573,18 +9592,18 @@
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J49" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A49,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9593,18 +9612,18 @@
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J50" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A50,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9613,18 +9632,18 @@
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J51" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A51,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9633,18 +9652,18 @@
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J52" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A52,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9653,18 +9672,18 @@
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J53" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A53,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9673,18 +9692,18 @@
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J54" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A54,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9693,18 +9712,18 @@
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J55" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A55,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9713,18 +9732,18 @@
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J56" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A56,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9733,18 +9752,18 @@
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J57" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A57,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9753,18 +9772,18 @@
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J58" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A58,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9773,18 +9792,18 @@
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J59" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A59,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9793,18 +9812,18 @@
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J60" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A60,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9813,18 +9832,18 @@
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J61" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A61,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9833,18 +9852,18 @@
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J62" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A62,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9853,18 +9872,18 @@
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J63" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A63,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9873,18 +9892,18 @@
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J64" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A64,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9893,18 +9912,18 @@
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J65" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A65,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9913,18 +9932,18 @@
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J66" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A66,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9933,18 +9952,18 @@
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J67" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A67,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9953,18 +9972,18 @@
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J68" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A68,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9973,18 +9992,18 @@
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J69" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A69,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -9993,18 +10012,18 @@
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J70" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A70,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10013,18 +10032,18 @@
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J71" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A71,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10033,18 +10052,18 @@
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J72" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A72,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10053,18 +10072,18 @@
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J73" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A73,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10073,18 +10092,18 @@
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J74" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A74,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10093,18 +10112,18 @@
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J75" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A75,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10113,18 +10132,18 @@
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J76" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A76,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10133,18 +10152,18 @@
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J77" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A77,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10153,18 +10172,18 @@
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J78" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A78,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10173,18 +10192,18 @@
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J79" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A79,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10193,18 +10212,18 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J80" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A80,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10213,18 +10232,18 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J81" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A81,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10233,18 +10252,18 @@
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J82" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A82,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10253,18 +10272,18 @@
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J83" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A83,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10273,18 +10292,18 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J84" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A84,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10293,18 +10312,18 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J85" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A85,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10313,18 +10332,18 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J86" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A86,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10333,18 +10352,18 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J87" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A87,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10353,18 +10372,18 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J88" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A88,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10373,18 +10392,18 @@
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J89" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A89,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10393,18 +10412,18 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J90" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A90,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10413,18 +10432,18 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J91" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A91,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10433,18 +10452,18 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J92" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A92,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10453,18 +10472,18 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J93" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A93,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10473,18 +10492,18 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J94" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A94,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10493,18 +10512,18 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J95" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A95,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10513,18 +10532,18 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J96" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A96,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10533,18 +10552,18 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J97" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A97,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10553,18 +10572,18 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>1032</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J98" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A98,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10573,18 +10592,18 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J99" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A99,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10593,18 +10612,18 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="J100" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A100,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10613,18 +10632,18 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J101" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A101,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10633,18 +10652,18 @@
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J102" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A102,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10653,18 +10672,18 @@
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J103" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A103,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10673,18 +10692,18 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J104" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A104,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10693,18 +10712,18 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J105" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A105,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10713,18 +10732,18 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>1049</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J106" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A106,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10733,18 +10752,18 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J107" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A107,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10753,18 +10772,18 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>1055</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J108" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A108,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10773,18 +10792,18 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J109" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A109,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10793,18 +10812,18 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J110" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A110,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10813,18 +10832,18 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="J111" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A111,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10833,18 +10852,18 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J112" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A112,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10853,18 +10872,18 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>1070</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J113" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A113,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10873,18 +10892,18 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J114" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A114,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10893,18 +10912,18 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J115" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A115,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10913,18 +10932,18 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J116" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A116,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10933,18 +10952,18 @@
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J117" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A117,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10953,18 +10972,18 @@
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J118" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A118,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10973,18 +10992,18 @@
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J119" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A119,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -10993,18 +11012,18 @@
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="J120" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A120,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11013,18 +11032,18 @@
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J121" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A121,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11033,18 +11052,18 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J122" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A122,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11053,18 +11072,18 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J123" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A123,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11073,18 +11092,18 @@
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J124" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A124,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11093,18 +11112,18 @@
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J125" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A125,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11113,18 +11132,18 @@
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J126" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A126,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11133,18 +11152,18 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J127" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A127,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11153,18 +11172,18 @@
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J128" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A128,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11173,18 +11192,18 @@
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J129" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A129,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11193,18 +11212,18 @@
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>1118</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J130" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A130,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11213,18 +11232,18 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J131" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A131,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11233,18 +11252,18 @@
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J132" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A132,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11253,18 +11272,18 @@
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J133" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A133,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11424,7 +11443,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J141" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A141,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11573,18 +11592,18 @@
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J149" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A149,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11593,18 +11612,18 @@
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J150" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A150,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11613,13 +11632,13 @@
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -11633,13 +11652,13 @@
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -11653,18 +11672,18 @@
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J153" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A153,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11673,18 +11692,18 @@
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="J154" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A154,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -11693,13 +11712,13 @@
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -13273,7 +13292,7 @@
     </row>
     <row r="234" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>148</v>
@@ -13284,7 +13303,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J234" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A234,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13293,7 +13312,7 @@
     </row>
     <row r="235" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>148</v>
@@ -13304,7 +13323,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J235" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A235,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13313,18 +13332,18 @@
     </row>
     <row r="236" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J236" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A236,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13333,18 +13352,18 @@
     </row>
     <row r="237" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J237" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A237,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13353,13 +13372,13 @@
     </row>
     <row r="238" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -13373,18 +13392,18 @@
     </row>
     <row r="239" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="J239" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A239,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13393,18 +13412,18 @@
     </row>
     <row r="240" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J240" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A240,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13413,13 +13432,13 @@
     </row>
     <row r="241" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -13433,18 +13452,18 @@
     </row>
     <row r="242" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J242" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A242,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13453,18 +13472,18 @@
     </row>
     <row r="243" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J243" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A243,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -13473,13 +13492,13 @@
     </row>
     <row r="244" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -13564,7 +13583,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J248" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A248,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14333,18 +14352,18 @@
     </row>
     <row r="287" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J287" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A287,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14353,18 +14372,18 @@
     </row>
     <row r="288" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J288" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A288,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14373,18 +14392,18 @@
     </row>
     <row r="289" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J289" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A289,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14393,18 +14412,18 @@
     </row>
     <row r="290" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J290" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A290,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14413,18 +14432,18 @@
     </row>
     <row r="291" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J291" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A291,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14433,18 +14452,18 @@
     </row>
     <row r="292" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J292" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A292,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14453,18 +14472,18 @@
     </row>
     <row r="293" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J293" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A293,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14513,18 +14532,18 @@
     </row>
     <row r="296" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J296" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A296,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14533,18 +14552,18 @@
     </row>
     <row r="297" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J297" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A297,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14553,18 +14572,18 @@
     </row>
     <row r="298" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J298" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A298,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14613,18 +14632,18 @@
     </row>
     <row r="301" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J301" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A301,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14633,18 +14652,18 @@
     </row>
     <row r="302" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J302" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A302,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14653,18 +14672,18 @@
     </row>
     <row r="303" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J303" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A303,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14673,18 +14692,18 @@
     </row>
     <row r="304" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J304" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A304,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14693,18 +14712,18 @@
     </row>
     <row r="305" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J305" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A305,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14713,18 +14732,18 @@
     </row>
     <row r="306" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J306" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A306,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14733,18 +14752,18 @@
     </row>
     <row r="307" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J307" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A307,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14753,18 +14772,18 @@
     </row>
     <row r="308" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J308" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A308,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14773,18 +14792,18 @@
     </row>
     <row r="309" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J309" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A309,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14793,18 +14812,18 @@
     </row>
     <row r="310" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C310" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J310" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A310,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14813,18 +14832,18 @@
     </row>
     <row r="311" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J311" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A311,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14833,18 +14852,18 @@
     </row>
     <row r="312" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J312" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A312,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14853,18 +14872,18 @@
     </row>
     <row r="313" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J313" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A313,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14873,18 +14892,18 @@
     </row>
     <row r="314" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J314" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A314,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14893,18 +14912,18 @@
     </row>
     <row r="315" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J315" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A315,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14913,18 +14932,18 @@
     </row>
     <row r="316" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J316" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A316,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14933,18 +14952,18 @@
     </row>
     <row r="317" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>1172</v>
       </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J317" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A317,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14953,18 +14972,18 @@
     </row>
     <row r="318" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J318" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A318,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -14973,18 +14992,18 @@
     </row>
     <row r="319" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J319" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A319,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15013,18 +15032,18 @@
     </row>
     <row r="321" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J321" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A321,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15033,18 +15052,18 @@
     </row>
     <row r="322" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J322" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A322,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15053,18 +15072,18 @@
     </row>
     <row r="323" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J323" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A323,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15073,18 +15092,18 @@
     </row>
     <row r="324" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J324" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A324,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15093,18 +15112,18 @@
     </row>
     <row r="325" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J325" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A325,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15113,18 +15132,18 @@
     </row>
     <row r="326" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J326" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A326,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15173,18 +15192,18 @@
     </row>
     <row r="329" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J329" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A329,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15193,18 +15212,18 @@
     </row>
     <row r="330" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J330" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A330,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15213,18 +15232,18 @@
     </row>
     <row r="331" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J331" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A331,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15233,18 +15252,18 @@
     </row>
     <row r="332" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J332" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A332,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15253,18 +15272,18 @@
     </row>
     <row r="333" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J333" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A333,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15273,18 +15292,18 @@
     </row>
     <row r="334" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J334" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A334,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15293,18 +15312,18 @@
     </row>
     <row r="335" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J335" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A335,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15313,18 +15332,18 @@
     </row>
     <row r="336" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J336" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A336,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15333,18 +15352,18 @@
     </row>
     <row r="337" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J337" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A337,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15353,18 +15372,18 @@
     </row>
     <row r="338" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J338" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A338,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15373,18 +15392,18 @@
     </row>
     <row r="339" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J339" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A339,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15393,18 +15412,18 @@
     </row>
     <row r="340" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J340" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A340,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15413,18 +15432,18 @@
     </row>
     <row r="341" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J341" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A341,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15433,18 +15452,18 @@
     </row>
     <row r="342" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J342" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A342,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15453,18 +15472,18 @@
     </row>
     <row r="343" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J343" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A343,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15473,18 +15492,18 @@
     </row>
     <row r="344" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="J344" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A344,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15493,18 +15512,18 @@
     </row>
     <row r="345" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J345" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A345,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15513,18 +15532,18 @@
     </row>
     <row r="346" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J346" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A346,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15533,18 +15552,18 @@
     </row>
     <row r="347" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J347" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A347,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15553,18 +15572,18 @@
     </row>
     <row r="348" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J348" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A348,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15573,18 +15592,18 @@
     </row>
     <row r="349" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J349" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A349,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15593,18 +15612,18 @@
     </row>
     <row r="350" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J350" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A350,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15613,18 +15632,18 @@
     </row>
     <row r="351" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J351" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A351,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15633,18 +15652,18 @@
     </row>
     <row r="352" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J352" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A352,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15653,18 +15672,18 @@
     </row>
     <row r="353" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J353" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A353,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15673,18 +15692,18 @@
     </row>
     <row r="354" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J354" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A354,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15693,18 +15712,18 @@
     </row>
     <row r="355" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J355" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A355,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15713,18 +15732,18 @@
     </row>
     <row r="356" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J356" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A356,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15733,18 +15752,18 @@
     </row>
     <row r="357" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J357" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A357,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15753,18 +15772,18 @@
     </row>
     <row r="358" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J358" t="str" cm="1">
         <f>_xlfn.LAMBDA(_xlpm.x,IF(ISERROR(_xlpm.x),"NODE NOT FOUND",""))(VLOOKUP(A358,Sheet1!$A$2:$A$7983,1,FALSE))</f>
@@ -15813,127 +15832,127 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -15943,10 +15962,10 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
